--- a/Schema_info.xlsx
+++ b/Schema_info.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurav/Desktop/LLM_gk_Haldiram/LLM_gk_Haldiram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E67AD-985F-A34E-AF7B-A429262B9265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A21A1F-54EC-094E-9C9D-17DF7794BD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="680" windowWidth="25440" windowHeight="15020" activeTab="5" xr2:uid="{874B5F93-BBEA-8348-B586-172A113D4714}"/>
+    <workbookView xWindow="80" yWindow="680" windowWidth="25440" windowHeight="15020" xr2:uid="{874B5F93-BBEA-8348-B586-172A113D4714}"/>
   </bookViews>
   <sheets>
-    <sheet name="tbl_Product_Master" sheetId="3" r:id="rId1"/>
-    <sheet name="tbl_Shipment" sheetId="9" r:id="rId2"/>
-    <sheet name="tbl_Primary" sheetId="2" r:id="rId3"/>
-    <sheet name="tbl_Secondary" sheetId="4" r:id="rId4"/>
-    <sheet name="tbl_SS_DB_Superstockist" sheetId="5" r:id="rId5"/>
-    <sheet name="tbl_SS_Delhi_DB" sheetId="6" r:id="rId6"/>
-    <sheet name="tbl_SS_ClosingStockSuper" sheetId="7" r:id="rId7"/>
-    <sheet name="tbl_ClosingStockDB" sheetId="1" r:id="rId8"/>
+    <sheet name="LLM_Schema" sheetId="10" r:id="rId1"/>
+    <sheet name="tbl_Product_Master" sheetId="3" r:id="rId2"/>
+    <sheet name="tbl_Shipment" sheetId="9" r:id="rId3"/>
+    <sheet name="tbl_Primary" sheetId="2" r:id="rId4"/>
+    <sheet name="tbl_Secondary" sheetId="4" r:id="rId5"/>
+    <sheet name="tbl_SS_DB_Superstockist" sheetId="5" r:id="rId6"/>
+    <sheet name="tbl_SS_Delhi_DB" sheetId="6" r:id="rId7"/>
+    <sheet name="tbl_SS_ClosingStockSuper" sheetId="7" r:id="rId8"/>
+    <sheet name="tbl_ClosingStockDB" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="930">
   <si>
     <t>ColumnName</t>
   </si>
@@ -1879,13 +1880,7207 @@
   </si>
   <si>
     <t>ERP ID associated with the distributor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**tbl_Product_Master**</t>
+    </r>
+  </si>
+  <si>
+    <t>```json</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"This table contains detailed metadata for various products, including pricing, packaging, units, categories, and custom attributes. It is used for converting quantities between units, identifying promotions, and structuring product taxonomy. The table supports UI display logic and batch rules via flags and conversion factors, and is essential for enriching sales, stock, and shipment data with standardized product information."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"temp_Standard Unit : Represents the standard unit of measurement for the product, such as 'CAR' (Carton), datatype: VARCHAR, &lt;sample values: CAR, CAR&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Super Unit : Indicates the larger unit of measurement, such as 'KG' (Kilogram), datatype: VARCHAR, &lt;sample values: KG, KG&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"temp_Secondary Category : Describes a secondary categorization of the product, such as '400 GM', datatype: VARCHAR, &lt;sample values: 400 GM, MRP 10&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Display Category : The category name used for display purposes, such as 'Papad Punjabi 400 Gm', datatype: VARCHAR, &lt;sample values: Papad Punjabi 400 Gm, Nimbu Masala MRP 10&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"temp_Display Category ErpId : ERP identifier for the display category, such as 'DKI5B830643B21140', datatype: VARCHAR, &lt;sample values: DKI5B830643B21140, BDL1C850618A11636&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"temp_Primary Category ErpId : ERP identifier for the primary category, such as 'RTC &amp; Condiments_Ambient', datatype: VARCHAR, &lt;sample values: RTC &amp; Condiments_Ambient, Namkeen_Out of Home&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"temp_Secondary Category ErpId : ERP identifier for the secondary category, such as '400 GM_RTC &amp; Condiments_Ambient', datatype: VARCHAR, &lt;sample values: 400 GM_RTC &amp; Condiments_Ambient, MRP 10_Namkeen_Out of Home&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"temp_Product Division ErpId : ERP identifier for the product division, such as 'D', datatype: VARCHAR, &lt;sample values: D, B&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product : The name of the product, such as 'Papad Punjabi 400 GM*16 KG', datatype: VARCHAR, &lt;sample values: Papad Punjabi 400 GM*16 KG, Nimbu Masala 0|5012KG NGP&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Variant : Specific variant of the product, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PTR : Price to Retailer, such as '102.4', datatype: FLOAT, &lt;sample values: 102.4, 7.6313&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PTR Delta : Difference in PTR, often left blank, datatype: FLOAT, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PTD : Price to Distributor, such as '96.6', datatype: FLOAT, &lt;sample values: 96.6, 7.19&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Display MRP : Maximum Retail Price for display, such as '128', datatype: FLOAT, &lt;sample values: 128, 10&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MRP : Maximum Retail Price, such as '128', datatype: FLOAT, &lt;sample values: 128, 10&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Unit : Unit of the product, such as 'PAC' (Pack), datatype: VARCHAR, &lt;sample values: PAC, PAC&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Alternate Category : An alternative category for the product, such as 'Papad', datatype: VARCHAR, &lt;sample values: Papad, Sev Namkeen&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Description : Detailed description of the product, such as 'Punjabi Papad 400 Gm*16', datatype: VARCHAR, &lt;sample values: Punjabi Papad 400 Gm*16, Nimbu Masala 50 Gm (12 Kg C/S) Dom&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Standard Unit Conversion Factor : Conversion factor for the standard unit, such as '40', datatype: FLOAT, &lt;sample values: 40, 240&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Super Unit Conversion Factor : Conversion factor for the super unit, such as '2.5', datatype: FLOAT, &lt;sample values: 2.5, 20&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Erp Id : Unique ERP identifier for the product, such as 'FK064304001600000D', datatype: VARCHAR, &lt;sample values: FK064304001600000D, FD061800501200001D&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Schemes : Promotional schemes associated with the product, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Display Order : Order in which the product is displayed, such as '2112', datatype: INT, &lt;sample values: 2112, 1906&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Is Promoted : Indicates if the product is promoted, such as 'False', datatype: BOOLEAN, &lt;sample values: False, False&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Is Markdown Margin logic : Indicates if markdown margin logic is applied, such as 'False', datatype: BOOLEAN, &lt;sample values: False, False&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Packaging Type : Type of packaging, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Minimum Batch Quantity : Minimum quantity for batch processing, such as '1', datatype: INT, &lt;sample values: 1, 1&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Pack Size : Size of the pack, such as 'B2', datatype: VARCHAR, &lt;sample values: B2, A1&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Color Name : Name of the color, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"RGB Values : RGB color values, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ImageId : Identifier for the product image, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Weight in gm : Weight of the product in grams, such as '0', datatype: FLOAT, &lt;sample values: 0, 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Channel : Distribution channel, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expiry (Days) : Expiry period in days, often left blank, datatype: INT, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"GST Category : GST category, such as '0', datatype: INT, &lt;sample values: 0, 12&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CESS Category : CESS category, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Short Name : Shortened name of the product, such as 'F40660400', datatype: VARCHAR, &lt;sample values: F40660400, FDNMA1500501200&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"HSN Code : Harmonized System Nomenclature code, such as '19059040', datatype: INT, &lt;sample values: 19059040, 21069099&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Shelf Life In Days : Shelf life of the product in days, often left blank, datatype: INT, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Net Weight : Net weight of the product, often left blank, datatype: FLOAT, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Gross Weight : Gross weight of the product, such as '400', datatype: FLOAT, &lt;sample values: 400, 50&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PTRMT : Price to Retailer Margin Type, often left blank, datatype: FLOAT, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PTD Super : Price to Distributor for super unit, often left blank, datatype: FLOAT, &lt;sample values: nan, 6.92&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PTD Sub : Price to Distributor for sub unit, such as '96.6', datatype: FLOAT, &lt;sample values: 96.6, 7.19&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_AttributeText1 : Custom text attribute for the product, such as 'Papad', datatype: VARCHAR, &lt;sample values: Papad, Nimbu Masala&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_AttributeText2 : Another custom text attribute, such as 'Papad Punjabi', datatype: VARCHAR, &lt;sample values: Papad Punjabi, Nimbu Masala&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_AttributeBoolean1 : Custom boolean attribute, often left blank, datatype: BOOLEAN, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_AttributeBoolean2 : Another custom boolean attribute, often left blank, datatype: BOOLEAN, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_AttributeNumber1 : Custom numeric attribute, often left blank, datatype: FLOAT, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_AttributeNumber2 : Another custom numeric attribute, often left blank, datatype: FLOAT, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_AttributeDate1 : Custom date attribute, often left blank, datatype: DATE, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_AttributeDate2 : Another custom date attribute, often left blank, datatype: DATE, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"GUID : Globally unique identifier for the product, such as 'fd299e49-11d3-4db8-9557-a4f3f3c6ca57', datatype: UUID, &lt;sample values: fd299e49-11d3-4db8-9557-a4f3f3c6ca57, 483090cb-3be8-46ad-87c6-2681ef69ceb3&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"HASHKEY : Hash key for the product, such as '689785D64A6CE6852A641CE0BCBCB7FA', datatype: VARCHAR, &lt;sample values: 689785D64A6CE6852A641CE0BCBCB7FA, 6A3D5F0C4D2376B923E7C8D2A0974FE2&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"IsSaleable : Indicates if the product is saleable, such as 'True', datatype: BOOLEAN, &lt;sample values: True, True&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"AdditionalUnit : Additional unit of measurement, such as 'LADDI', datatype: VARCHAR, &lt;sample values: , LADDI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"AdditionalUnitConversionFactor : Conversion factor for the additional unit, often left blank, datatype: FLOAT, &lt;sample values: nan, 12&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Barcode : Barcode of the product, often left blank, datatype: VARCHAR, &lt;sample values: , &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_Property_1 : Custom property of the product, such as 'NOIDA', datatype: VARCHAR, &lt;sample values: NOIDA, NAGPUR&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_Property_2 : Another custom property, such as 'Domestic', datatype: VARCHAR, &lt;sample values: Domestic, Domestic&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_Property_3 : Additional custom property, such as '1140', datatype: INT, &lt;sample values: 1140, 1759&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**tbl_Primary**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"This table captures primary sales transactions between sellers and buyers, including detailed metadata, order details, product information, discounts, and taxes. It tracks invoiced quantities across various units and provides pricing and margin data, useful for analyzing trade discounts, logistics, and invoice-level profitability."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller ERP ID : Unique identifier for the seller in the ERP system, integer, &lt;sample values: 19000102&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller Name : Name of the seller, string, &lt;sample values: S B Markplus Private Limited-2&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller Phone Number : Contact number of the seller, integer, &lt;sample values: 9312870870&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller Zone : Geographical zone of the seller, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller Region : Region of the seller, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller State : State where the seller is located, string, &lt;sample values: DELHI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller GST : GST number of the seller, string, &lt;sample values: 07AARCS1463K1ZV&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller City : City where the seller is located, string, &lt;sample values: Delhi&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller Type : Type of seller, string, &lt;sample values: SuperStockist&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller Address : Full address of the seller, string, &lt;sample values: KHASRA NO. 5/20, 6/16, BUDHPUR, BIJAPUR, DELHI, NORTH WEST DELHI, DELHI, 110036&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer ERP ID : Unique identifier for the buyer in the ERP system, integer, &lt;sample values: 460307&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer Name : Name of the buyer, string, &lt;sample values: SAWARIYA TRADING 41496&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer Phone Number : Contact number of the buyer, integer, &lt;sample values: 9643430471&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer Zone : Geographical zone of the buyer, string, &lt;sample values: NORTH&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer Region : Region of the buyer, string, &lt;sample values: DELHI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer State : State where the buyer is located, string, &lt;sample values: DELHI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer City : City where the buyer is located, string, &lt;sample values: BAWANA&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer Type : Type of buyer, string, &lt;sample values: SubStockist&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer GST : GST number of the buyer, string, &lt;sample values: 07BKWPV1939A1ZQ&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Shop Type : Type of shop, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Outlet Tag : Tag for the outlet, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Channel Data : Sales channel information, string, &lt;sample values: GT&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Outlet Code : Code for distributor outlet, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer Billing Address : Billing address of the buyer, string, &lt;sample values: 46, Narela Rd, Ishwar Colony, Bawana, Delhi, 110039, India&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer Shipping Address : Shipping address of the buyer, string, &lt;sample values: 46, Narela Rd, Ishwar Colony, Bawana, Delhi, 11003&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SFA Order ID : Order ID in the SFA system, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Order Source : Source of the order, string, &lt;sample values: direct_sales&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Sales Order ID : Sales order identifier, string, &lt;sample values: SO-10005-1149&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ERP Sales Order No : ERP sales order number, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Bill ID : Identifier for the bill, string, &lt;sample values: 25-26/SBGS-1068&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ERP Invoice No : ERP invoice number, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Beat Name : Name of the sales beat, string, &lt;sample values: BAWANA (SAWARIYA TRADING 41496)&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Beat ERP ID : ERP identifier for the sales beat, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ESM Name : Name of the ESM, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ESM ERP ID : ERP identifier for the ESM, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product ERP ID : Unique identifier for the product in the ERP system, string, &lt;sample values: FD060300351050002D&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Name : Name of the product, string, &lt;sample values: Moong Dal MRP 10|35 GM*10.5 KG&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Division : Division of the product, string, &lt;sample values: Out of Home&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Primary Category : Primary category of the product, string, &lt;sample values: Namkeen&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Secondary Category : Secondary category of the product, string, &lt;sample values: MRP 10&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Display Category Name : Display name for the product category, string, &lt;sample values: Moong Dal MRP 10&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Variant : Variant of the product, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Alternate Category : Alternate category for the product, string, &lt;sample values: Namkeen Dal&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Standard Unit Conversion Factor : Conversion factor for standard units, integer, &lt;sample values: 300&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MRP : Maximum retail price of the product, integer, &lt;sample values: 10&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Batch No : Batch number of the product, string, &lt;sample values: DAEE11&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Manufacturing Date : Date of manufacturing, date, &lt;sample values: 07/05/25&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expiry Date : Expiry date of the product, date, &lt;sample values: 04/10/25&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Unit Price : Price per unit, float, &lt;sample values: 7.0092&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Ordered Quantity : Quantity ordered, integer, &lt;sample values: 300&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Short Close Qty : Quantity short closed, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Invoiced Super Unit : Total invoiced quantity in super units, float, &lt;sample values: 10.5&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Super Unit : Super unit of measurement, string, &lt;sample values: KG&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Invoiced Cases : Total invoiced quantity in cases, integer, &lt;sample values: 1&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Standard Unit : Standard unit of measurement, string, &lt;sample values: CAR&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Invoiced Pieces : Total invoiced quantity in pieces, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Unit : Unit of measurement, string, &lt;sample values: PAC&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Free Quantity _in Pieces_ : Free quantity provided in pieces, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Invoiced Quantity _all in cases_ : Total invoiced quantity in cases, integer, &lt;sample values: 1&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Gross Amount : Gross amount for the transaction, float, &lt;sample values: 2102.76&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Attribute 1 : First attribute of the product, string, &lt;sample values: Moong Dal&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Attribute 2 : Second attribute of the product, string, &lt;sample values: Moong Dal&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Purchase Price : Purchase price of the product, float, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buying Value : Total buying value, float, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Profit Value : Profit value from the transaction, float, &lt;sample values: 2102.76&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Trade Discount Percent : Percentage of trade discount, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Trade Discount Value : Value of trade discount, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Primary Discount Percent : Percentage of primary discount, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Primary Discount Value : Value of primary discount, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Secondary Discount Percent : Percentage of secondary discount, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Secondary Discount Value : Value of secondary discount, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Cash Discount Percent : Percentage of cash discount, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Cash Discount Value : Value of cash discount, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Gross Amount Less Discount : Gross amount after discounts, float, &lt;sample values: 2355.1&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Discount : Total discount applied, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Net Amount : Net amount after discounts, float, &lt;sample values: 2102.76&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Margin Value : Margin value from the transaction, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"HSN Code : Harmonized System Nomenclature code, integer, &lt;sample values: 21069099&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"GST Percent : GST percentage applied, integer, &lt;sample values: 12&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"IGST Tax Rate : Integrated GST tax rate, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"IGST Tax Amount : Amount of IGST tax, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CGST Tax Rate : Central GST tax rate, integer, &lt;sample values: 6&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CGST Tax Amount : Amount of CGST tax, float, &lt;sample values: 126.17&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SGST Tax Rate : State GST tax rate, integer, &lt;sample values: 6&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SGST Tax Amount : Amount of SGST tax, float, &lt;sample values: 126.17&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"UTGST Tax Rate : Union Territory GST tax rate, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"UTGST Tax Amount : Amount of UTGST tax, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Tax Value : Total tax value, float, &lt;sample values: 252.34&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"TCS Value : Tax Collected at Source value, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CESS Value : CESS value, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Net Value : Net value after taxes, float, &lt;sample values: 2355.1&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Freight Charges : Charges for freight, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Delivery ID : Identifier for the delivery, string, &lt;sample values: DL-10005-1072&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Warehouse ERP ID : ERP identifier for the warehouse, integer, &lt;sample values: 161310&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Reference No : Reference number for the transaction, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Delivery Status : Status of the delivery, string, &lt;sample values: ready_to_dispatch&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Stock Segmentation : Segmentation of stock, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Is Cancelled : Indicates if the transaction is cancelled, boolean, &lt;sample values: False&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Is Edited : Indicates if the transaction is edited, boolean, &lt;sample values: in_progress&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SAP ERP Invoice Number : SAP ERP invoice number, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Factory Name : Name of the factory, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Factory ERP Id : ERP identifier for the factory, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Grn Purchase Price : GRN purchase price, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"IDT Invoice : IDT invoice number, string, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Invoice Total Value : Total value of the invoice, integer, &lt;sample values: 432683&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Remaining Collection Amount : Remaining amount to be collected, integer, &lt;sample values: 432683&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Sales Order Date : Date of the sales order, date, &lt;sample values: &gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Bill Date : Date of the bill, date, &lt;sample values: 14/05/25&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Invoiced Total Quantity : Total quantity invoiced, integer, &lt;sample values: 300&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**tbl_Secondary**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"This table captures detailed secondary sales data from sellers to end retailers or customers, including product-wise invoiced quantities, pricing, freight, and buyer details. It also includes manufacturing and expiry dates, product attributes, and net transaction values, enabling last-mile sales tracking and distributor-level sales analysis."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_ERP_ID : Unique identifier for the seller in the ERP system, integer, &lt;sample values: 460307&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_Name : Name of the seller, string, &lt;sample values: SAWARIYA TRADING 41496&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_Phone_Number : Contact number of the seller, integer, &lt;sample values: 9643430471&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_Zone : Geographical zone of the seller, string, &lt;sample values: NORTH&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_Region : Region where the seller operates, string, &lt;sample values: DELHI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_State : State where the seller is located, string, &lt;sample values: DELHI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_GST : GST number of the seller, string, &lt;sample values: 07BKWPV1939A1ZQ&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_City : City where the seller is based, string, &lt;sample values: WEST DELHI WEST DELHI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Seller_Type : Type of seller, string, &lt;sample values: SubStockist&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer_ERP_ID : Unique identifier for the buyer in the ERP system, string, &lt;sample values: FO_DLR0_535439793&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer_Name : Name of the buyer, string, &lt;sample values: Vansh Store&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer_Phone_Number : Contact number of the buyer, float, &lt;sample values: 9.96827e+09&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer_Zone : Geographical zone of the buyer, string, &lt;sample values: NORTH&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer_Region : Region where the buyer operates, string, &lt;sample values: DELHI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer_State : State where the buyer is located, string, &lt;sample values: DELHI&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Buyer_City : City where the buyer is based, string, &lt;sample values: Delhi&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Beat_Name : Name of the sales beat or route, string, &lt;sample values: ALL WHOLESALER (SAWARIYA TRADING 41496)&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_ERP_ID : Unique identifier for the product in the ERP system, string, &lt;sample values: FI002000300450001D&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_Name : Name of the product, string, &lt;sample values: Chips Masala MRP 10|30 4.5 KG&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Primary_Category : Main category of the product, string, &lt;sample values: Western Snacks&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Manufacturing_Date : Date of manufacturing of the product, time, &lt;sample values: 00:00.0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expiry_Date : Expiry date of the product, time, &lt;sample values: 00:00.0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total_Invoiced_Super_Unit : Total quantity invoiced in super units, float, &lt;sample values: 4.5&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Super_Unit : Unit of measurement for super units, string, &lt;sample values: KG&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total_Invoiced_Cases : Total quantity invoiced in cases, integer, &lt;sample values: 1&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total_Invoiced_Pieces : Total quantity invoiced in pieces, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Free_Quantity_in_Pieces : Quantity given for free in pieces, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Invoiced_Quantity_all_in_cases : Total invoiced quantity in cases, integer, &lt;sample values: 1&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product_Attribute_1 : Additional attribute of the product, string, &lt;sample values: Chips&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Net_Value : Net transaction value, float, &lt;sample values: 1164.6&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Freight_Charges : Charges for freight, integer, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Bill_Date : Date of billing, date, &lt;sample values: 08/05/25&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Invoiced_Total_Quantity : Total quantity invoiced, integer, &lt;sample values: 150&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**tbl_SS_DB_Superstockist**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"This table serves as a master reference for linking Super Stockist names with their corresponding ERP IDs, facilitating the identification and referencing of super stockists across distribution and supply chain datasets. It is crucial for hierarchy-level reporting and regional inventory analysis."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, [[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Superstockist Name : The name of the super stockist, represented as a string. It identifies the entity within the supply chain. &lt;sample values: S B Markplus Private Limited-3, Kansal Estate Private Limited etc.&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Superstockist Erp Id : The ERP ID associated with the super stockist, represented as an integer. It is used for system identification and reference. &lt;sample values: 19000740, 19000149 etc.&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**tbl_SS_Delhi_DB**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"This table captures the mapping between distributors and their assigned super stockists in the Delhi region, including multi-level sales hierarchy data, distributor segmentation, channels, geotag, and ERP identifiers. It is useful for understanding the sales organization structure, tax jurisdictions, and distributor classification, enabling location-wise planning, supply chain alignment, and geo-segmented performance reporting."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Superstockist Name : Name of the super stockist assigned to the distributor, represented as a string. &lt;sample values: S B Markplus Private Limited-2, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Level 6 Position's User : Name of the user at level 6 in the sales hierarchy, represented as a string. &lt;sample values: Vinayak Mathur, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Level 5 Position's User : Name of the user at level 5 in the sales hierarchy, represented as a string. &lt;sample values: Manoj Kumar Gaur, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Level 4 Position's User : Name of the user at level 4 in the sales hierarchy, represented as a string. &lt;sample values: Lokesh Baweja, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Level 3 Position's User : Name of the user at level 3 in the sales hierarchy, represented as a string. &lt;sample values: Ashwani Mudgil, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Level 2 Position's User : Name of the user at level 2 in the sales hierarchy, represented as a string. &lt;sample values: Mohammad Gaffar, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Name : Name of the distributor, represented as a string. &lt;sample values: SAWARIYA TRADING 41496, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Erp Id : Unique ERP identifier for the distributor, represented as an integer. &lt;sample values: 460307, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Type : Classification of the distributor, represented as a string. &lt;sample values: Sub Stockist, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"State : State where the distributor operates, represented as a string. &lt;sample values: DELHI, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Geo Tagging : Indicates if geotagging is applied, represented as a string. &lt;sample values: Yes, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Place Of Supply : Location where the supply is made, represented as a string. &lt;sample values: Delhi, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Segmentation : Segmentation category of the distributor, represented as a string. &lt;sample values: GT, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Channel : Channel through which the distributor operates, represented as a string. &lt;sample values: GT, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"City Of warehouse Address : City where the distributor's warehouse is located, represented as a string. &lt;sample values: WEST DELHI WEST DELHI, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"temp_Created Date : Temporary field indicating the creation date, represented as a date. &lt;sample values: 30/03/25, ...&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**tbl_ClosingStockDB**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"This table provides a detailed inventory snapshot for each product at the distributor level, capturing stock in various units such as pieces, cases, and super units. It tracks current stock, pending orders, in-transit quantities, damaged stock, and expired quantities, offering essential data for inventory audits, expiry forecasting, and real-time stock availability analysis across distributors."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Name : Name of the distributor handling the product, datatype: VARCHAR, sample values: SAWARIYA TRADING 41496"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Display Category : Category under which the product is displayed, datatype: VARCHAR, sample values: Moong Dal MRP 5, Chatpata Dal MRP 5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Erp Id : Unique ERP identifier for the product, datatype: VARCHAR, sample values: FD060300170856800D, FD020000221108800D"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ProductId : Unique identifier for the product, datatype: INTEGER, sample values: 829, 791"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SKU Name : Stock Keeping Unit name, detailing product and packaging, datatype: VARCHAR, sample values: Moong Dal MRP 5|17GM*8.568KG, Chatpata Dal MRP 5|22GM*11.088 KG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CompanyId : Identifier for the company associated with the product, datatype: INTEGER, sample values: 111290"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Pcs/Box : Number of pieces per box, datatype: INTEGER, sample values: 504, 300"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"IsActive : Status indicating if the product is active, datatype: VARCHAR, sample values: Yes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Current Stock In Case : Current stock available in cases, datatype: INTEGER, sample values: 32, 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Current Stock In Pcs : Current stock available in pieces, datatype: INTEGER, sample values: 36, 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CurrentStock_SuperUnit_ : Current stock available in super units, datatype: FLOAT, sample values: 274.804, 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Current Stock in Pcs : Total current stock available in pieces, datatype: INTEGER, sample values: 16164, 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PendingOrderQtyInCase : Quantity of pending orders in cases, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PendingOrderPcs : Quantity of pending orders in pieces, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Pending Order Super Unit : Quantity of pending orders in super units, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Pending Order _Unit_ : Total pending order quantity in units, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"InTransitInboundQtyInCase : In-transit inbound quantity in cases, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"InTransitInboundQtyInPcs : In-transit inbound quantity in pieces, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"In Transit Inbound Qty in Super Unit : In-transit inbound quantity in super units, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"InTransitInboundTotalPcs : Total in-transit inbound quantity in pieces, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Damaged Qty In Case : Quantity of damaged stock in cases, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Damaged Qty In Pcs : Quantity of damaged stock in pieces, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Damaged Qty in Super Unit : Quantity of damaged stock in super units, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Damaged Total Pcs : Total damaged stock in pieces, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expired Qty In Case : Quantity of expired stock in cases, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expired Qty In Pcs : Quantity of expired stock in pieces, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expired Qty in Super Unit : Quantity of expired stock in super units, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ExpiredTotalPcs : Total expired stock in pieces, datatype: INTEGER, sample values: 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Mfg Date : Manufacturing date of the product, datatype: DATE, sample values: 13/07/25, 18/10/24"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Exp Date : Expiry date of the product, datatype: DATE, sample values: 10/11/25, 14/03/25"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Days to Expire : Number of days until the product expires, datatype: INTEGER, sample values: 103, -138"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Shelf Life % : Percentage of shelf life remaining, datatype: FLOAT, sample values: 0.858333, -0.938776"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Price/Pcs : Price per piece of the product, datatype: FLOAT, sample values: 3.50484, 3.5046"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MRP : Maximum Retail Price of the product, datatype: INTEGER, sample values: 5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Value : Total value of the current stock, datatype: FLOAT, sample values: 56648.4, 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Volume : Total volume of the current stock, datatype: FLOAT, sample values: 963.146, 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Alternate Category : Alternate category for the product, datatype: VARCHAR, sample values: Namkeen Dal, Mixture-Premium"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Attribute Text 1 : Additional product attribute text, datatype: VARCHAR, sample values: Moong Dal, Chatpata Dal"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Attribute Text 2 : Additional product attribute text, datatype: VARCHAR, sample values: Moong Dal, Chatpata Dal"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Erp Id : ERP identifier for the distributor, datatype: INTEGER, sample values: 460307"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**tbl_SS_ClosingStockSuper**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"This table tracks the closing stock data at the Super Stockist level for each product and distributor combination. It includes details about current stock, pending orders, in-transit quantities, and damaged and expired stock across various units such as cases, pieces, and super units. The table also stores product metadata including SKU, MRP, shelf life, price per piece, ERP identifiers, and value/volume metrics, which are critical for warehouse-level inventory planning, aging analysis, and upstream supply chain visibility."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Name : Name of the distributor handling the product, VARCHAR, &lt;sample values: Kansal Estate Private Limited, S B Markplus Private Limited-3&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Display Category : Category of the product as displayed, VARCHAR, &lt;sample values: Chips Aloo Masala MRP 20, Aloo Bhujia Plain MRP 5&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Erp Id : Unique ERP identifier for the product, VARCHAR, &lt;sample values: FI001600600540000D, FD092100201008000D&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ProductId : Unique identifier for the product, INTEGER, &lt;sample values: 2043, 459&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SKU Name : Stock Keeping Unit name including product details, VARCHAR, &lt;sample values: Chips Aloo Masala MRP 20|60 GM*5.4 KG, Aloo Bhujia Plain MRP 5|20 GM*10.08 KG&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CompanyId : Identifier for the company, INTEGER, &lt;sample values: 111290&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Pcs/Box : Number of pieces per box, INTEGER, &lt;sample values: 90, 504&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"IsActive : Status indicating if the product is active, VARCHAR, &lt;sample values: Yes&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Current Stock In Case : Current stock available in cases, INTEGER, &lt;sample values: 5, 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Current Stock In Pcs : Current stock available in pieces, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CurrentStock_SuperUnit_ : Current stock available in super units, FLOAT, &lt;sample values: 26.9946, 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Current Stock in Pcs : Total current stock available in pieces, INTEGER, &lt;sample values: 450, 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PendingOrderQtyInCase : Quantity of pending orders in cases, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PendingOrderPcs : Quantity of pending orders in pieces, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Pending Order Super Unit : Quantity of pending orders in super units, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Pending Order _Unit_ : Total quantity of pending orders in units, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"InTransitInboundQtyInCase : In-transit inbound quantity in cases, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"InTransitInboundQtyInPcs : In-transit inbound quantity in pieces, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"In Transit Inbound Qty in Super Unit : In-transit inbound quantity in super units, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"InTransitInboundTotalPcs : Total in-transit inbound quantity in pieces, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Damaged Qty In Case : Quantity of damaged stock in cases, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Damaged Qty In Pcs : Quantity of damaged stock in pieces, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Damaged Qty in Super Unit : Quantity of damaged stock in super units, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Damaged Total Pcs : Total quantity of damaged stock in pieces, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expired Qty In Case : Quantity of expired stock in cases, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expired Qty In Pcs : Quantity of expired stock in pieces, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Expired Qty in Super Unit : Quantity of expired stock in super units, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ExpiredTotalPcs : Total quantity of expired stock in pieces, INTEGER, &lt;sample values: 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Mfg Date : Manufacturing date of the product, DATE, &lt;sample values: 14/06/25, 26/06/25&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Exp Date : Expiry date of the product, DATE, &lt;sample values: 22/10/25, 23/11/25&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Days to Expire : Number of days until the product expires, INTEGER, &lt;sample values: 83, 115&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Shelf Life % : Percentage of shelf life remaining, FLOAT, &lt;sample values: 0.638462, 0.766667&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Price/Pcs : Price per piece of the product, FLOAT, &lt;sample values: 12.2361, 3.4292&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MRP : Maximum Retail Price of the product, INTEGER, &lt;sample values: 20, 5&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Value : Total value of the current stock, FLOAT, &lt;sample values: 5500.62, 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Total Volume : Total volume of the current stock, FLOAT, &lt;sample values: 330.308, 0&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Alternate Category : Alternate category of the product, VARCHAR, &lt;sample values: Potato Wafers, Aloo Bhujia&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Attribute Text 1 : Additional product attribute text, VARCHAR, &lt;sample values: Chips, Aloo Bhujia&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Product Attribute Text 2 : Additional product attribute text, VARCHAR, &lt;sample values: Chips Aloo Masala, Aloo Bhujia&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Distributor Erp Id : Unique ERP identifier for the distributor, VARCHAR, &lt;sample values: 19000149, 19000740&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1904,6 +9099,32 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1932,12 +9153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,11 +9494,1746 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5647CFC8-C331-7C4D-AC07-7736AB86ACFE}">
+  <dimension ref="A1:A356"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F925711-2857-5E40-938B-7F588FE0B3EF}">
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2873,12 +11831,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF26B56-56B2-934D-A57F-30A89AB7851D}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3563,12 +12521,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD57D8D-14BE-3040-B051-92E678932FBE}">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4793,12 +13751,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E144FF-908B-9C45-B7F8-6680A3AF0470}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection sqref="A1:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5187,12 +14145,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEC9182-91A1-4A41-8CD2-CDA0D30FD7AA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5240,12 +14198,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549BA655-7A3D-8741-B403-7EC2EB26F1B7}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5446,12 +14404,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E009396-9A0B-2147-809C-9F3F11EBB692}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5916,12 +14874,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E677AAC-F631-1648-8F32-EE89292E716C}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
